--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>no</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>rekha</t>
+  </si>
+  <si>
+    <t>xyz123@gmail.com</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,13 +406,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -447,16 +457,27 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>